--- a/Relatorio placas positivas.xlsx
+++ b/Relatorio placas positivas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckely\Desktop\Inventario\UGBplacas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckely\Desktop\Inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387FD63-9721-4869-9688-0466317E032B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341B7A61-911B-43E2-BC47-643043438902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="630" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,9 +604,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="3">
-        <v>50</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -627,9 +625,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="3">
-        <v>50</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>

--- a/Relatorio placas positivas.xlsx
+++ b/Relatorio placas positivas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckely\Desktop\Inventario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckely\Desktop\Inventario\UGBplacas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341B7A61-911B-43E2-BC47-643043438902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994CF654-9188-48AE-A78F-4CDD122731EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="630" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +617,14 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3">
+        <v>640</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3">
+        <v>120</v>
+      </c>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -638,7 +642,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3">
+        <v>640</v>
+      </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -659,7 +665,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>800</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -680,7 +688,9 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>504</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -701,7 +711,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>548</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -722,7 +734,9 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>560</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
